--- a/Spankulator-Hardware/bom/Spankulator.xlsx
+++ b/Spankulator-Hardware/bom/Spankulator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\spankulator\Spankulator-Hardware\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66857FC2-0A80-470E-8F71-45ECBADE3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE7EDA-CF50-42C3-81B6-F133DEECCF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <t>Reference</t>
   </si>
@@ -31,70 +31,118 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Footprint</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Digi-Key Part</t>
   </si>
   <si>
+    <t xml:space="preserve"> LCSC Part #</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1 </t>
   </si>
   <si>
     <t>Nano_33IoT</t>
   </si>
   <si>
+    <t>Module:Arduino_Nano</t>
+  </si>
+  <si>
     <t>1050-ABX00032-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C1 C2 C18 </t>
+    <t xml:space="preserve">C1 C2 C18 C19 </t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
+    <t>Capacitor_THT:C_Rect_L7.0mm_W2.0mm_P5.00mm</t>
+  </si>
+  <si>
     <t>BC2662CT-ND</t>
   </si>
   <si>
+    <t>C162686</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11 C15 </t>
   </si>
   <si>
     <t>2.2uF</t>
   </si>
   <si>
+    <t>sputterizer:CP_Radial_Tantal_D4.5mm_P5.00mm_Min</t>
+  </si>
+  <si>
     <t>478-12960-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C14 </t>
+    <t>C50520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16 </t>
+  </si>
+  <si>
+    <t>270p</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Rect_L4.0mm_W2.5mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>490-7362-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3 C4 </t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:CP_Radial_D8.0mm_P3.50mm</t>
+  </si>
+  <si>
+    <t>1189-3982-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 C20 </t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>399-9877-1-ND</t>
+  </si>
+  <si>
+    <t>C400087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8 C10 C14 </t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>445-180204-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16 </t>
-  </si>
-  <si>
-    <t>270p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3 C4 </t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>1189-3982-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 </t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8 C10 </t>
-  </si>
-  <si>
-    <t>330nF</t>
+    <t>399-9886-1-ND</t>
+  </si>
+  <si>
+    <t>C94708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1 D2 D7 D8 D9 D15 D16 D19 D20 </t>
+  </si>
+  <si>
+    <t>BAT46</t>
+  </si>
+  <si>
+    <t>Diode_THT:D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t>BAT46CT-ND</t>
+  </si>
+  <si>
+    <t>C2798198</t>
   </si>
   <si>
     <t xml:space="preserve">D14 </t>
@@ -103,10 +151,10 @@
     <t>RED LED</t>
   </si>
   <si>
-    <t>BAT46</t>
-  </si>
-  <si>
-    <t>BAT46CT-ND</t>
+    <t>LED_THT:LED_D3.0mm</t>
+  </si>
+  <si>
+    <t>160-1035-ND</t>
   </si>
   <si>
     <t xml:space="preserve">D3 </t>
@@ -145,24 +193,72 @@
     <t>1N4148VSCT-ND</t>
   </si>
   <si>
+    <t>C84412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 J3 J4 J5 J6 </t>
+  </si>
+  <si>
+    <t>3.5mm Jack</t>
+  </si>
+  <si>
+    <t>sputterizer:Molex-0472570001</t>
+  </si>
+  <si>
+    <t>WM17366-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10 </t>
+  </si>
+  <si>
+    <t>FRAM Pins</t>
+  </si>
+  <si>
+    <t>732-5321-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11 </t>
+  </si>
+  <si>
+    <t>OLED Pins</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12 J13 </t>
+  </si>
+  <si>
+    <t>Arduino Socket</t>
+  </si>
+  <si>
+    <t>sputterizer:ArduinoConnector</t>
+  </si>
+  <si>
+    <t>S7048-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14 </t>
+  </si>
+  <si>
+    <t>Eurorack Power Cable</t>
+  </si>
+  <si>
+    <t>H3CCS-1618G-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">J2 </t>
   </si>
   <si>
-    <t>2x5 Header</t>
+    <t>Euro Power</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>S2011EC-05-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J1 J3 J4 J5 J6 </t>
-  </si>
-  <si>
-    <t>3.5mm Jack</t>
-  </si>
-  <si>
-    <t>WM17366-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">J7 </t>
   </si>
   <si>
@@ -175,6 +271,9 @@
     <t>FRAM Header</t>
   </si>
   <si>
+    <t>sputterizer:PinHeader_1x8_P2.54mm_Drill1.02mm</t>
+  </si>
+  <si>
     <t>1212-1191-ND</t>
   </si>
   <si>
@@ -184,16 +283,52 @@
     <t>Display Header</t>
   </si>
   <si>
+    <t>sputterizer:OLED_Header_Slim</t>
+  </si>
+  <si>
     <t>SAM1011-04-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 Q3 Q5 Q6 Q7 Q8 </t>
-  </si>
-  <si>
-    <t>TN2106</t>
-  </si>
-  <si>
-    <t>TN2106N3-G-ND</t>
+    <t xml:space="preserve">KN1 </t>
+  </si>
+  <si>
+    <t>Selector Knob</t>
+  </si>
+  <si>
+    <t>226-4215-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN2 </t>
+  </si>
+  <si>
+    <t>CV Knob</t>
+  </si>
+  <si>
+    <t>1722-1241-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1 </t>
+  </si>
+  <si>
+    <t>FRAM_Module</t>
+  </si>
+  <si>
+    <t>1528-1035-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2 </t>
+  </si>
+  <si>
+    <t>OLED_Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1 N2 N3 N4 N5 N6 N7 </t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>36-4687-ND</t>
   </si>
   <si>
     <t xml:space="preserve">Q2 Q4 </t>
@@ -202,27 +337,66 @@
     <t>VP2106</t>
   </si>
   <si>
+    <t>digikey-footprints:TO-92-3_Formed_Leads</t>
+  </si>
+  <si>
     <t>VP2106N3-G-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 R5 R11 R21 </t>
+    <t>C632609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 Q5 Q7 Q8 </t>
+  </si>
+  <si>
+    <t>2N7000TA</t>
+  </si>
+  <si>
+    <t>2N7000TACT-ND</t>
+  </si>
+  <si>
+    <t>C107290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R11 </t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
+    <t>Resistor_THT:R_Axial_DIN0207_L6.3mm_D2.5mm_P10.16mm_Horizontal</t>
+  </si>
+  <si>
     <t>CF14JT10K0CT-ND</t>
   </si>
   <si>
+    <t>C433778</t>
+  </si>
+  <si>
     <t xml:space="preserve">R10 R16 </t>
   </si>
   <si>
     <t>100K</t>
   </si>
   <si>
+    <t>2019-CF1/4CT52R104JCT-ND</t>
+  </si>
+  <si>
+    <t>C120103</t>
+  </si>
+  <si>
     <t xml:space="preserve">R17 </t>
   </si>
   <si>
+    <t>316K 1%</t>
+  </si>
+  <si>
+    <t>316KXBK-ND</t>
+  </si>
+  <si>
+    <t>C172901</t>
+  </si>
+  <si>
     <t xml:space="preserve">R18 </t>
   </si>
   <si>
@@ -232,13 +406,19 @@
     <t>CF14JT68K0CT-ND</t>
   </si>
   <si>
+    <t>C479260</t>
+  </si>
+  <si>
     <t xml:space="preserve">R19 R20 </t>
   </si>
   <si>
     <t>PPC470W-1CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 R3 R4 R6 R8 R14 R15 </t>
+    <t>C129899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 R3 R4 R5 R6 R8 R14 R15 R21 </t>
   </si>
   <si>
     <t>1K</t>
@@ -247,6 +427,9 @@
     <t>CF14JT1K00CT-ND</t>
   </si>
   <si>
+    <t>C66649</t>
+  </si>
+  <si>
     <t xml:space="preserve">R23 R28 </t>
   </si>
   <si>
@@ -256,6 +439,33 @@
     <t>RN55E3003BB14-ND</t>
   </si>
   <si>
+    <t>C173001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29 </t>
+  </si>
+  <si>
+    <t>200K .1%</t>
+  </si>
+  <si>
+    <t>CMF200KHCCT-ND</t>
+  </si>
+  <si>
+    <t>C172982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30 </t>
+  </si>
+  <si>
+    <t>95.3K 1%</t>
+  </si>
+  <si>
+    <t>RNF14FTD95K3CT-ND</t>
+  </si>
+  <si>
+    <t>C172602</t>
+  </si>
+  <si>
     <t xml:space="preserve">R7 R12 R24 R26 R27 R31 </t>
   </si>
   <si>
@@ -265,22 +475,7 @@
     <t>A105968CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">R29 </t>
-  </si>
-  <si>
-    <t>200K .1%</t>
-  </si>
-  <si>
-    <t>CMF200KHCCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30 </t>
-  </si>
-  <si>
-    <t>95.3K 1%</t>
-  </si>
-  <si>
-    <t>RNF14FTD95K3CT-ND</t>
+    <t>C511595</t>
   </si>
   <si>
     <t xml:space="preserve">R9 R13 </t>
@@ -292,57 +487,189 @@
     <t>CF14JT43K0CT-ND</t>
   </si>
   <si>
+    <t>C433719</t>
+  </si>
+  <si>
     <t xml:space="preserve">RV1 </t>
   </si>
   <si>
+    <t>Potentiometer_THT:Potentiometer_Bourns_PTV09A-1_Single_Vertical</t>
+  </si>
+  <si>
     <t>PTV09A-4225F-B102-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">RV2 RV3 </t>
+    <t xml:space="preserve">RV2 </t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>Potentiometer_THT:Potentiometer_Bourns_3266Y_Vertical</t>
+  </si>
+  <si>
+    <t>490-2881-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV3 </t>
   </si>
   <si>
     <t>490-2875-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">SC1 SC2 SC4 SC6 SC8 </t>
+  </si>
+  <si>
+    <t>Nylon Screw</t>
+  </si>
+  <si>
+    <t>36-29331-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC3 SC5 SC7 SC9 </t>
+  </si>
+  <si>
+    <t>Mounting Screw</t>
+  </si>
+  <si>
+    <t>335-1156-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK1 SK2 SK3 </t>
+  </si>
+  <si>
+    <t>A_08-LC-TT</t>
+  </si>
+  <si>
+    <t>Package_DIP:DIP-8_W7.62mm_Socket</t>
+  </si>
+  <si>
+    <t>AE9986-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK4 </t>
+  </si>
+  <si>
+    <t>A_14-LC-TT</t>
+  </si>
+  <si>
+    <t>AE9989-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO1 </t>
+  </si>
+  <si>
+    <t>Standoff 7mm</t>
+  </si>
+  <si>
+    <t>732-13045-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2 SO3 SO5 SO7 </t>
+  </si>
+  <si>
+    <t>Standoff 12mm</t>
+  </si>
+  <si>
+    <t>732-13063-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO4 SO6 </t>
+  </si>
+  <si>
+    <t>Standoff 10mm</t>
+  </si>
+  <si>
+    <t>732-13055-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO8 SO9 SO10 SO11 SO12 </t>
+  </si>
+  <si>
+    <t>LED_Standoff</t>
+  </si>
+  <si>
+    <t>732-11607-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1 </t>
   </si>
   <si>
     <t>Adj</t>
   </si>
   <si>
+    <t>digikey-footprints:Rotary_Encoder_Switched_PEC11R</t>
+  </si>
+  <si>
+    <t>987-1187-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW2 SW3 SW4 SW5 SW6 SW7 SW8 </t>
   </si>
   <si>
     <t>Push Button</t>
   </si>
   <si>
+    <t>Button_Switch_THT:SW_PUSH_6mm</t>
+  </si>
+  <si>
     <t>450-1643-ND</t>
   </si>
   <si>
+    <t>C266209</t>
+  </si>
+  <si>
     <t xml:space="preserve">TP1 TP2 TP3 TP4 </t>
   </si>
   <si>
     <t>TestPoint</t>
   </si>
   <si>
+    <t>TestPoint:TestPoint_Keystone_5005-5009_Compact</t>
+  </si>
+  <si>
     <t>36-5006-ND</t>
   </si>
   <si>
     <t xml:space="preserve">U1 U3 </t>
   </si>
   <si>
+    <t>TL032CP</t>
+  </si>
+  <si>
+    <t>Package_DIP:DIP-8_W7.62mm</t>
+  </si>
+  <si>
+    <t>296-7149-5-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2 </t>
   </si>
   <si>
     <t>CD4013BE</t>
   </si>
   <si>
+    <t>Package_DIP:DIP-14_W7.62mm_Socket</t>
+  </si>
+  <si>
     <t>296-2033-5-ND</t>
   </si>
   <si>
+    <t>C132508</t>
+  </si>
+  <si>
     <t xml:space="preserve">U4 </t>
   </si>
   <si>
+    <t>MC78L05_TO92</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_THT:TO-92_Inline_Wide</t>
+  </si>
+  <si>
+    <t>296-27135-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">U5 </t>
   </si>
   <si>
@@ -352,130 +679,25 @@
     <t>296-26120-ND</t>
   </si>
   <si>
+    <t>C133551</t>
+  </si>
+  <si>
     <t xml:space="preserve">U6 </t>
   </si>
   <si>
     <t>MAX7480</t>
   </si>
   <si>
+    <t>Package_DIP:DIP-8_W7.62mm_Socket_LongPads</t>
+  </si>
+  <si>
     <t>MAX7480EPA+-ND</t>
   </si>
   <si>
-    <t>FRAM Pins</t>
-  </si>
-  <si>
-    <t>732-5321-ND</t>
-  </si>
-  <si>
-    <t>OLED Pins</t>
-  </si>
-  <si>
-    <t>732-5317-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12 </t>
-  </si>
-  <si>
-    <t>Eurorack Power Cable</t>
-  </si>
-  <si>
-    <t>H3CCS-1618G-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13 J14 </t>
-  </si>
-  <si>
-    <t>Arduino Socket</t>
-  </si>
-  <si>
-    <t>S7048-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN1 </t>
-  </si>
-  <si>
-    <t>Selector Knob</t>
-  </si>
-  <si>
-    <t>226-4215-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN2 </t>
-  </si>
-  <si>
-    <t>Scale Knob</t>
-  </si>
-  <si>
-    <t>1722-1241-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1 </t>
-  </si>
-  <si>
-    <t>FRAM_Module</t>
-  </si>
-  <si>
-    <t>1528-1035-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2 </t>
-  </si>
-  <si>
-    <t>OLED_Module</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B072Q2X2LL/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1 N2 N3 N4 N5 N6 N7 </t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>36-4687-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC1 SC2 SC3 SC4 SC5 </t>
-  </si>
-  <si>
-    <t>Nylon Screw</t>
-  </si>
-  <si>
-    <t>36-29331-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC6 SC7 SC8 SC9 </t>
-  </si>
-  <si>
-    <t>Mounting Screw</t>
-  </si>
-  <si>
-    <t>335-1156-ND</t>
-  </si>
-  <si>
-    <t>A_08-LC-TT</t>
-  </si>
-  <si>
-    <t>AE9986-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK3 </t>
-  </si>
-  <si>
-    <t>A_14-LC-TT</t>
-  </si>
-  <si>
-    <t>AE9989-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO1 SO2 SO3 SO4 </t>
-  </si>
-  <si>
-    <t>Standoff 12mm</t>
-  </si>
-  <si>
-    <t>732-13063-ND</t>
+    <t>C72124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1 </t>
   </si>
   <si>
     <t>Washer</t>
@@ -484,86 +706,14 @@
     <t>RPC3448-ND</t>
   </si>
   <si>
-    <t>490-7362-1-ND</t>
-  </si>
-  <si>
-    <t>399-9877-1-ND</t>
-  </si>
-  <si>
-    <t>445-180638-1-ND</t>
-  </si>
-  <si>
-    <t>160-1035-ND</t>
-  </si>
-  <si>
-    <t>987-1187-ND</t>
-  </si>
-  <si>
-    <t>TL032CP</t>
-  </si>
-  <si>
-    <t>296-7149-5-ND</t>
-  </si>
-  <si>
-    <t>2019-CF1/4CT52R104JCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 </t>
-  </si>
-  <si>
-    <t>1722-1314-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK1 SK2 SK4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO5 </t>
-  </si>
-  <si>
-    <t>Standoff 7mm</t>
-  </si>
-  <si>
-    <t>732-13045-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO6 SO7 </t>
-  </si>
-  <si>
-    <t>Standoff 10mm</t>
-  </si>
-  <si>
-    <t>732-13055-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W1 </t>
-  </si>
-  <si>
-    <t>296-39515-5-ND</t>
-  </si>
-  <si>
-    <t>UA7805CKCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> URL</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Arduino-Nano-33-IoT/dp/B07VW9TSKD/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1 D2 D7 D15 D16 D19 D20 </t>
-  </si>
-  <si>
-    <t>324K 1%</t>
-  </si>
-  <si>
-    <t>324KXBK-ND</t>
+    <t>C156437</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,14 +848,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1004,7 +1146,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1047,16 +1189,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1090,7 +1227,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1411,20 +1547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,846 +1572,1057 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>470</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>62</v>
+      <c r="C35">
+        <v>470</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
         <v>173</v>
       </c>
-      <c r="D41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" t="s">
-        <v>163</v>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>209</v>
+      </c>
+      <c r="E57" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>166</v>
+      <c r="C58" t="s">
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>152</v>
+      <c r="C60" t="s">
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E51" r:id="rId1" xr:uid="{242F8B17-41C7-4655-8FE6-F83C1ACB3E41}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>